--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Description</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>sxediasi sxesiakou montelou</t>
+  </si>
+  <si>
+    <t>dimiourgia backup litourgias gia mia mysql vasi</t>
+  </si>
+  <si>
+    <t>dimiourgia options/configuration/settings gia ta backup cons</t>
+  </si>
+  <si>
+    <t>dimiourgia Adapter kai koumpoma enosi UI/Form backup litourgias me background job</t>
+  </si>
+  <si>
+    <t>dimiourgia unit test gia ta dbconnection,testconnection,mysqldump,</t>
   </si>
 </sst>
 </file>
@@ -112,7 +124,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0;\-#,##0.0"/>
     <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00;\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -303,7 +315,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -314,23 +326,12 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -428,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -536,28 +537,25 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -566,22 +564,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -593,7 +585,7 @@
     <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -626,55 +618,67 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -689,27 +693,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1009,7 +992,7 @@
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1017,7 +1000,7 @@
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="77" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
@@ -1033,13 +1016,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="73" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1049,7 +1032,7 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="73" t="s">
         <v>24</v>
       </c>
       <c r="H1" s="1"/>
@@ -1068,7 +1051,7 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="74" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4"/>
@@ -1087,17 +1070,17 @@
       <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:18" ht="15.75">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="72" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="77" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="14"/>
@@ -1116,17 +1099,17 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="70" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="22"/>
-      <c r="F4" s="79"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="22"/>
       <c r="H4" s="23"/>
       <c r="I4" s="24"/>
@@ -1147,10 +1130,10 @@
       <c r="B5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="70" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="22"/>
@@ -1169,10 +1152,16 @@
       <c r="R5" s="30"/>
     </row>
     <row r="6" spans="1:18" outlineLevel="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="78" t="s">
+        <v>26</v>
+      </c>
       <c r="E6" s="23"/>
       <c r="F6" s="22"/>
       <c r="G6" s="23"/>
@@ -1187,81 +1176,101 @@
       <c r="P6" s="35"/>
       <c r="Q6" s="36"/>
     </row>
-    <row r="7" spans="1:18" ht="15.75">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="46"/>
+    <row r="7" spans="1:18">
+      <c r="A7" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="45"/>
     </row>
     <row r="8" spans="1:18" outlineLevel="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="58"/>
+      <c r="A8" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="55"/>
     </row>
     <row r="9" spans="1:18" outlineLevel="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="66"/>
+      <c r="A9" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="63"/>
     </row>
     <row r="10" spans="1:18" ht="15.75">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="69"/>
+      <c r="A10" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="66"/>
     </row>
     <row r="11" spans="1:18" outlineLevel="1">
       <c r="A11" s="21"/>
@@ -1816,13 +1825,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C36">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyStuff\desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>Description</t>
   </si>
@@ -126,19 +121,25 @@
   </si>
   <si>
     <t>dimiourgia leitourgias compression (zip) me 7zip - compression.cs</t>
+  </si>
+  <si>
+    <t>Dimiourgia sql database viewer/explorer gia ton xristi,</t>
+  </si>
+  <si>
+    <t>Prosthiki Progress bar stin diadikasia mysqlDump</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="#,##0;\-#,##0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0;\-#,##0.0"/>
     <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00;\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -440,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -676,9 +677,12 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -716,7 +720,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -758,7 +762,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -790,10 +794,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -825,7 +828,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1001,17 +1003,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
@@ -1031,7 +1033,7 @@
     <col min="17" max="17" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75">
       <c r="A1" s="67" t="s">
         <v>6</v>
       </c>
@@ -1063,7 +1065,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -1085,7 +1087,7 @@
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75">
       <c r="A3" s="66" t="s">
         <v>6</v>
       </c>
@@ -1111,7 +1113,7 @@
       <c r="Q3" s="19"/>
       <c r="R3" s="20"/>
     </row>
-    <row r="4" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" outlineLevel="1">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1139,7 +1141,7 @@
       <c r="Q4" s="28"/>
       <c r="R4" s="30"/>
     </row>
-    <row r="5" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" outlineLevel="1">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1167,7 +1169,7 @@
       <c r="Q5" s="28"/>
       <c r="R5" s="30"/>
     </row>
-    <row r="6" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" outlineLevel="1">
       <c r="A6" s="21" t="s">
         <v>9</v>
       </c>
@@ -1192,7 +1194,7 @@
       <c r="P6" s="35"/>
       <c r="Q6" s="36"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="72" t="s">
         <v>9</v>
       </c>
@@ -1217,7 +1219,7 @@
       <c r="P7" s="44"/>
       <c r="Q7" s="45"/>
     </row>
-    <row r="8" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" outlineLevel="1">
       <c r="A8" s="74" t="s">
         <v>8</v>
       </c>
@@ -1242,12 +1244,12 @@
       <c r="P8" s="52"/>
       <c r="Q8" s="55"/>
     </row>
-    <row r="9" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" outlineLevel="1">
       <c r="A9" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="69" t="s">
@@ -1267,7 +1269,7 @@
       <c r="P9" s="62"/>
       <c r="Q9" s="63"/>
     </row>
-    <row r="10" spans="1:18" s="80" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" s="80" customFormat="1" ht="12.75">
       <c r="A10" s="75" t="s">
         <v>9</v>
       </c>
@@ -1292,7 +1294,7 @@
       <c r="P10" s="79"/>
       <c r="Q10" s="76"/>
     </row>
-    <row r="11" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" outlineLevel="1">
       <c r="A11" s="21" t="s">
         <v>9</v>
       </c>
@@ -1317,7 +1319,7 @@
       <c r="P11" s="29"/>
       <c r="Q11" s="30"/>
     </row>
-    <row r="12" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" outlineLevel="1">
       <c r="A12" s="21" t="s">
         <v>9</v>
       </c>
@@ -1342,11 +1344,17 @@
       <c r="P12" s="35"/>
       <c r="Q12" s="36"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="22"/>
+    <row r="13" spans="1:18">
+      <c r="A13" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="D13" s="81" t="s">
+        <v>33</v>
+      </c>
       <c r="E13" s="23"/>
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
@@ -1361,11 +1369,17 @@
       <c r="P13" s="35"/>
       <c r="Q13" s="36"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="22"/>
+    <row r="14" spans="1:18">
+      <c r="A14" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="D14" s="81" t="s">
+        <v>34</v>
+      </c>
       <c r="E14" s="23"/>
       <c r="F14" s="22"/>
       <c r="G14" s="23"/>
@@ -1380,7 +1394,7 @@
       <c r="P14" s="35"/>
       <c r="Q14" s="36"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="37"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -1399,7 +1413,7 @@
       <c r="P15" s="35"/>
       <c r="Q15" s="36"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="37"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -1418,7 +1432,7 @@
       <c r="P16" s="35"/>
       <c r="Q16" s="36"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="37"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -1437,7 +1451,7 @@
       <c r="P17" s="35"/>
       <c r="Q17" s="36"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="37"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -1456,7 +1470,7 @@
       <c r="P18" s="35"/>
       <c r="Q18" s="36"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="37"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -1475,7 +1489,7 @@
       <c r="P19" s="35"/>
       <c r="Q19" s="36"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="37"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -1494,7 +1508,7 @@
       <c r="P20" s="35"/>
       <c r="Q20" s="36"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="37"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -1513,7 +1527,7 @@
       <c r="P21" s="35"/>
       <c r="Q21" s="36"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="37"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -1532,7 +1546,7 @@
       <c r="P22" s="35"/>
       <c r="Q22" s="36"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="37"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -1551,7 +1565,7 @@
       <c r="P23" s="35"/>
       <c r="Q23" s="36"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="37"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -1570,7 +1584,7 @@
       <c r="P24" s="35"/>
       <c r="Q24" s="36"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="37"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -1589,7 +1603,7 @@
       <c r="P25" s="35"/>
       <c r="Q25" s="36"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="37"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -1608,7 +1622,7 @@
       <c r="P26" s="35"/>
       <c r="Q26" s="36"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="37"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -1627,7 +1641,7 @@
       <c r="P27" s="35"/>
       <c r="Q27" s="36"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="37"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -1646,7 +1660,7 @@
       <c r="P28" s="35"/>
       <c r="Q28" s="36"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" s="37"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -1665,7 +1679,7 @@
       <c r="P29" s="35"/>
       <c r="Q29" s="36"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="37"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -1684,7 +1698,7 @@
       <c r="P30" s="35"/>
       <c r="Q30" s="36"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="37"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -1703,7 +1717,7 @@
       <c r="P31" s="35"/>
       <c r="Q31" s="36"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" s="37"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -1722,7 +1736,7 @@
       <c r="P32" s="35"/>
       <c r="Q32" s="36"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" s="37"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -1741,7 +1755,7 @@
       <c r="P33" s="35"/>
       <c r="Q33" s="36"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="37"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -1760,7 +1774,7 @@
       <c r="P34" s="35"/>
       <c r="Q34" s="36"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="37"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -1779,7 +1793,7 @@
       <c r="P35" s="35"/>
       <c r="Q35" s="36"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="37"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -1798,7 +1812,7 @@
       <c r="P36" s="35"/>
       <c r="Q36" s="36"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="37"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -1817,7 +1831,7 @@
       <c r="P37" s="35"/>
       <c r="Q37" s="36"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="37"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -1836,7 +1850,7 @@
       <c r="P38" s="35"/>
       <c r="Q38" s="36"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="37"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -1884,14 +1898,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
@@ -1899,7 +1913,7 @@
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1907,82 +1921,82 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>23</v>
       </c>
